--- a/lab01.xlsx
+++ b/lab01.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\other\Education\ib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA03BAD3-563C-4835-87C6-1716A5DD0BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4FDF9-893D-43C1-877D-BB358F2D636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5C7B1F-9CC7-48EC-86FA-70E46418FE89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Банки" sheetId="1" r:id="rId1"/>
+    <sheet name="подсчет очков" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="176">
   <si>
     <t>ОАО «СИБНЕФТЕБАНК»;</t>
   </si>
@@ -401,18 +401,6 @@
     <t>COMKRUMMIBD</t>
   </si>
   <si>
-    <t>Лояльность</t>
-  </si>
-  <si>
-    <t>Есть</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>ТОП 3</t>
   </si>
   <si>
@@ -423,13 +411,169 @@
   </si>
   <si>
     <t>АО КБ "Ситибанк"</t>
+  </si>
+  <si>
+    <t>https://www.sibsoc.ru/files/doc_bg.doc</t>
+  </si>
+  <si>
+    <t>https://sinara-finance.ru/upload/iblock/4cf/hak9lldbh1bdsz2t6tb48ye47ujqkjj2.pdf</t>
+  </si>
+  <si>
+    <t>информация не найдена</t>
+  </si>
+  <si>
+    <t>https://cibank.ru/ftpgetfile.php?id=519&amp;module=files</t>
+  </si>
+  <si>
+    <t>https://www.citibank.com/transactionservices/home/region/university/we_eb_ru/docs/CCU%20Setup%20Guide.pdf</t>
+  </si>
+  <si>
+    <t>https://www.snbank.ru/files/phi/credit/ipoteka/poryadok_uslug.pdf</t>
+  </si>
+  <si>
+    <t>https://sovcombank.ru/business/servisi/elektronnaya-podpis</t>
+  </si>
+  <si>
+    <t>https://ibank2.sinko-bank.ru/pdocs/iBank_Private_Internet_Bank.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sinko-bank.ru/o_banke/press-tsentr/news/?id=623</t>
+  </si>
+  <si>
+    <t>https://www.sibsoc.ru/files/Dogovor%20agent.doc</t>
+  </si>
+  <si>
+    <t>https://sudact.ru/arbitral/doc/SEhdoqhPplJq/</t>
+  </si>
+  <si>
+    <t>https://cibank.ru/ru/news/uvedomlenija-ob-operacijah</t>
+  </si>
+  <si>
+    <t>https://www.citibank.ru/russia/News/rus/news.htm</t>
+  </si>
+  <si>
+    <t>https://sudact.ru/arbitral/doc/w5UmmBcGgVrO/</t>
+  </si>
+  <si>
+    <t>https://www.snbank.ru/otchetnost/poryadok_pretenziy/</t>
+  </si>
+  <si>
+    <t>https://sovcombank.ru/security</t>
+  </si>
+  <si>
+    <t>https://sovcombank.ru/cards/rassrochki/mir</t>
+  </si>
+  <si>
+    <t>https://sovcombank.ru/payments/sbp</t>
+  </si>
+  <si>
+    <t>https://www.snbank.ru/phi/transfer/sbp/</t>
+  </si>
+  <si>
+    <t>https://www.snbank.ru/phi/cards/</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/debitcards/slavyanbank/</t>
+  </si>
+  <si>
+    <t>https://zkhclick.ru/kvitantsii/ooo_uo_armada-51561/</t>
+  </si>
+  <si>
+    <t>https://brobank.ru/sbp-banki-uchastniki/</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/debitcards/catalogue/karta_mir_s_keshbekom_za_puteshestviya/bank/slaviabank/</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/creditcards/catalogue/kreditnyie_kartyi_natsionalnoy_platejnoy_sistemyi_mir_/bank/citibank/</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/debitcards/catalogue/debetovaya_karta_mir/bank/cibank/</t>
+  </si>
+  <si>
+    <t>https://www.vbr.ru/banki/siti-invest-bank/rko/</t>
+  </si>
+  <si>
+    <t>https://www.citibank.ru/russia/services/rus/sbp.html</t>
+  </si>
+  <si>
+    <t>https://www.sinko-bank.ru/chastnym_kliyentam/cbp/</t>
+  </si>
+  <si>
+    <t>https://www.sinko-bank.ru/chastnym_kliyentam/debetovie_karty/</t>
+  </si>
+  <si>
+    <t>https://sinara.ru/chastnym-licam/karty</t>
+  </si>
+  <si>
+    <t>https://sinara.ru/chastnym-licam/sbp</t>
+  </si>
+  <si>
+    <t>https://www.sibsoc.ru/personal/sistema-bystryx-platezhej/</t>
+  </si>
+  <si>
+    <t>https://www.sibsoc.ru/personal/bankovskie-karty/debetovaya-karta-mir/</t>
+  </si>
+  <si>
+    <t>https://arb.ru/b2b/docs/standart_banka_rossii_sto_br_ibbs_1_0_20khkh_obespechenie_informatsionnoy_bezopa-411941/</t>
+  </si>
+  <si>
+    <t>https://www.cnews.ru/book/%D0%A6%D0%91_%D0%A0%D0%A4_-_%D0%A6%D0%B5%D0%BD%D1%82%D1%80%D0%BE%D0%B1%D0%B0%D0%BD%D0%BA_-_%D0%A6%D0%B5%D0%BD%D1%82%D1%80%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D0%B1%D0%B0%D0%BD%D0%BA_%D0%A0%D0%A4_-_%D0%91%D0%B0%D0%BD%D0%BA_%D0%A0%D0%BE%D1%81%D1%81%D0%B8%D0%B8</t>
+  </si>
+  <si>
+    <t>https://www.press-release.ru/branches/i/?p=5606</t>
+  </si>
+  <si>
+    <t>https://rosswift.ru/doc/ANNUAL_REPORT_ROSSWIFT_2018.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dialognauka.ru/about/reviews/zao-kb-sitibank/</t>
+  </si>
+  <si>
+    <t>https://www.e-disclosure.ru/portal/FileLoad.ashx?Fileid=636564</t>
+  </si>
+  <si>
+    <t>https://rosswift.ru/doc/ROSSWIFT-2017.pdf</t>
+  </si>
+  <si>
+    <t>https://astra-st.ru/taxonomy/term/336</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/wikibank/rekomendatsii_banka_rossii_k_internet-saytam_bankov/</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/debitcards/catalogue/debetovaya_karta_visa/bank/sibsocbank/?page=2</t>
+  </si>
+  <si>
+    <t>https://sinara.ru/chastnym-licam/karty/premialnaya-karta</t>
+  </si>
+  <si>
+    <t>https://www.sinko-bank.ru/korporativnym_kliyentam/ekvayring/</t>
+  </si>
+  <si>
+    <t>https://cibank.ru/ru/retail/cards/visa/visa</t>
+  </si>
+  <si>
+    <t>https://www.citibank.ru/russia/cards/rus/aeroflot_infinite_main.htm</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/debitcards/catalogue/debetovaya_karta_visa/bank/slaviabank/</t>
+  </si>
+  <si>
+    <t>https://www.banki.ru/products/creditcards/catalogue/kreditnyie_kartyi_visa/bank/slavyanbank/</t>
+  </si>
+  <si>
+    <t>https://sovcombank.ru/apply/cards/credit/viza/</t>
+  </si>
+  <si>
+    <t>действует</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +612,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -561,10 +714,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -604,9 +758,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,9 +774,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -668,9 +816,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -694,8 +839,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1008,36 +1162,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E347E9-A83F-4FDB-BBC0-2849E855AB04}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="72.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="58"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="72.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="22" width="27" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="55" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="52" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -1045,1145 +1199,1107 @@
         <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="M1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>96</v>
       </c>
+      <c r="P1" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="Q1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="W1" s="8"/>
       <c r="X1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-    </row>
-    <row r="3" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+    </row>
+    <row r="3" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="13">
         <v>522</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15">
+      <c r="C3" s="15">
         <v>2015</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="17">
+      <c r="F3" s="17">
         <v>33837</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="18">
+      <c r="J3" s="18">
         <v>42829</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="L3" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="M3" s="13" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="19">
+      <c r="O3" s="19">
         <v>7202072360</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10">
+      <c r="Q3" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-    </row>
-    <row r="5" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+    </row>
+    <row r="5" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-    </row>
-    <row r="6" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+    </row>
+    <row r="6" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <v>525</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44">
+      <c r="C6" s="41">
         <v>705</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="46">
+      <c r="F6" s="43">
         <v>33179</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="44" t="s">
+      <c r="G6" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="I6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="47">
+      <c r="J6" s="44">
         <v>44643</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="47">
+      <c r="N6" s="44">
         <v>40541</v>
       </c>
-      <c r="P6" s="48">
+      <c r="O6" s="45">
         <v>6608003052</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="P6" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U6" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="V6" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="X6" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41">
+      <c r="Q6" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="V6" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13">
         <v>526</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15">
+      <c r="C7" s="15">
         <v>2838</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="17">
+      <c r="F7" s="17">
         <v>34470</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="18">
+      <c r="J7" s="18">
         <v>42328</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="L7" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="M7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="20">
+      <c r="N7" s="20">
         <v>40091</v>
       </c>
-      <c r="P7" s="19">
+      <c r="O7" s="19">
         <v>7703004072</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="P7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10">
+      <c r="Q7" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="T7" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="V7" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13">
         <v>527</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10">
+      <c r="C8" s="10">
         <v>2846</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="17">
+      <c r="F8" s="17">
         <v>34471</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="18">
+      <c r="J8" s="18">
         <v>41997</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="L8" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="M8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="O8" s="20">
+      <c r="N8" s="20">
         <v>41120</v>
       </c>
-      <c r="P8" s="19">
+      <c r="O8" s="19">
         <v>7705003797</v>
       </c>
+      <c r="P8" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="Q8" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="V8" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10">
+      <c r="X8" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>528</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44">
+      <c r="C9" s="41">
         <v>3194</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="46">
+      <c r="F9" s="43">
         <v>34698</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="44" t="s">
+      <c r="G9" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="I9" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="47">
+      <c r="J9" s="44">
         <v>42353</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="42" t="s">
+      <c r="L9" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="50">
+      <c r="N9" s="47">
         <v>39863</v>
       </c>
-      <c r="P9" s="48">
+      <c r="O9" s="45">
         <v>7831001422</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="P9" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T9" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U9" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="V9" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="W9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="X9" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41">
+      <c r="Q9" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="T9" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <v>529</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44">
+      <c r="C10" s="41">
         <v>2557</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="46">
+      <c r="F10" s="43">
         <v>34698</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="44" t="s">
+      <c r="G10" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="47">
+      <c r="J10" s="44">
         <v>42202</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="K10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="42" t="s">
+      <c r="L10" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="O10" s="50">
+      <c r="N10" s="47">
         <v>40618</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="O10" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="P10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="V10" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="X10" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41">
+      <c r="Q10" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13">
         <v>530</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
+      <c r="C11" s="15">
         <v>2664</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="17">
+      <c r="F11" s="17">
         <v>34361</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="18">
+      <c r="J11" s="18">
         <v>41660</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="L11" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="M11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="20">
+      <c r="N11" s="20">
         <v>41268</v>
       </c>
-      <c r="P11" s="19">
+      <c r="O11" s="19">
         <v>7726000596</v>
       </c>
+      <c r="P11" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="Q11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10">
+        <v>126</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="T11" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="V11" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="13">
         <v>531</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
+      <c r="C12" s="15">
         <v>804</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="17">
+      <c r="F12" s="17">
         <v>34361</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="18">
+      <c r="J12" s="18">
         <v>41880</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="L12" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="M12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="20">
+      <c r="N12" s="20">
         <v>40718</v>
       </c>
-      <c r="P12" s="19">
+      <c r="O12" s="19">
         <v>5321068480</v>
       </c>
+      <c r="P12" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="Q12" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="V12" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-    </row>
-    <row r="14" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+    </row>
+    <row r="14" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-    </row>
-    <row r="15" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+    </row>
+    <row r="15" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-    </row>
-    <row r="16" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+    </row>
+    <row r="16" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-    </row>
-    <row r="17" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+    </row>
+    <row r="17" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="13">
         <v>536</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15">
+      <c r="C17" s="15">
         <v>1376</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="17">
+      <c r="F17" s="17">
         <v>34361</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="15" t="s">
+      <c r="G17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="18">
+      <c r="J17" s="18">
         <v>41935</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>93</v>
       </c>
+      <c r="L17" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="M17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="O17" s="20">
+      <c r="N17" s="20">
         <v>40955</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="O17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="R17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10">
+      <c r="Q17" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="R17" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="T17" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="U17" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="V17" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-    </row>
-    <row r="19" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+    </row>
+    <row r="19" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-    </row>
-    <row r="20" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+    </row>
+    <row r="20" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="40">
         <v>539</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44">
+      <c r="C20" s="41">
         <v>963</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="E20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="46">
+      <c r="F20" s="43">
         <v>33204</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="51" t="s">
+      <c r="G20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="I20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="47">
+      <c r="J20" s="44">
         <v>43791</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="K20" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="42" t="s">
+      <c r="L20" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="50">
+      <c r="N20" s="47">
         <v>41936</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="O20" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="Q20" s="41" t="s">
+      <c r="P20" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T20" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U20" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="V20" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="W20" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="X20" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41">
+      <c r="Q20" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="S20" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="T20" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="V20" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="56" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="53" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-    </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+    </row>
+    <row r="22" spans="1:24" s="54" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2192,48 +2308,96 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M27" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B18:Z18"/>
-    <mergeCell ref="B19:Z19"/>
-    <mergeCell ref="B21:Z21"/>
-    <mergeCell ref="B16:Z16"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="B13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="B18:X18"/>
+    <mergeCell ref="B19:X19"/>
+    <mergeCell ref="B21:X21"/>
+    <mergeCell ref="B16:X16"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="B5:X5"/>
+    <mergeCell ref="B13:X13"/>
+    <mergeCell ref="B14:X14"/>
+    <mergeCell ref="B15:X15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{836484D7-4E45-415C-99E7-DF2447D4BF5E}"/>
+    <hyperlink ref="Q6" r:id="rId2" xr:uid="{73063B5A-FFA2-4E22-AEE4-5842E24C574A}"/>
+    <hyperlink ref="Q9" r:id="rId3" xr:uid="{6C36093C-3CB3-4138-8EB8-AD7745D5B36B}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{E44B64F8-E509-4A43-9DAE-17A82EEE42EE}"/>
+    <hyperlink ref="Q17" r:id="rId5" xr:uid="{CEFD9D31-CA0A-49D9-9F98-601231684E8B}"/>
+    <hyperlink ref="Q20" r:id="rId6" xr:uid="{1B3929DF-59E6-42F6-89C3-9B6771FB227F}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{102390E2-2968-4165-8DAB-F89E11011C32}"/>
+    <hyperlink ref="R7" r:id="rId8" xr:uid="{E4FCD79B-1894-470B-B987-B0F6DD2CEA5F}"/>
+    <hyperlink ref="R3" r:id="rId9" xr:uid="{73596CED-DD02-426C-8588-DE34BF4AEEEC}"/>
+    <hyperlink ref="R6" r:id="rId10" xr:uid="{3123616D-E26D-42D4-8C1C-B209D988F738}"/>
+    <hyperlink ref="R9" r:id="rId11" xr:uid="{28527434-65F5-4233-9EE7-20F4B84033C3}"/>
+    <hyperlink ref="R10" r:id="rId12" xr:uid="{4DF6F553-7198-4A0E-83A9-12D6A12DB72D}"/>
+    <hyperlink ref="R11" r:id="rId13" xr:uid="{3E16C5B0-9807-437D-9106-60E480113C36}"/>
+    <hyperlink ref="R17" r:id="rId14" xr:uid="{C60D4D72-99C7-493E-B0E3-E02BB5C86745}"/>
+    <hyperlink ref="R20" r:id="rId15" xr:uid="{B3252A61-F637-46F2-B16B-483ABDDC154F}"/>
+    <hyperlink ref="S20" r:id="rId16" xr:uid="{1EBC7375-EC8C-4989-BF73-16653044D67D}"/>
+    <hyperlink ref="T20" r:id="rId17" xr:uid="{9A5CB241-80CB-4EFB-A9B8-2E41E3B2A2B0}"/>
+    <hyperlink ref="T17" r:id="rId18" xr:uid="{93BCA144-83A8-4F4A-BAB7-8D46F20A48ED}"/>
+    <hyperlink ref="S17" r:id="rId19" xr:uid="{FA366206-50FC-4B5E-B115-C8F171832695}"/>
+    <hyperlink ref="S12" r:id="rId20" xr:uid="{0249F3F7-1FFD-4A07-98CF-EECAD6EA6224}"/>
+    <hyperlink ref="T12" r:id="rId21" xr:uid="{F46E7B84-8277-469D-82DF-D227EA1A85C4}"/>
+    <hyperlink ref="T11" r:id="rId22" xr:uid="{B6A779BA-9CC4-4C19-BF20-955BCD23D11B}"/>
+    <hyperlink ref="S11" r:id="rId23" xr:uid="{E3DBE790-5A63-49E8-B9B2-92B5A92E474F}"/>
+    <hyperlink ref="S10" r:id="rId24" xr:uid="{5DC4830B-D0ED-4B09-A20C-00F1C849FD70}"/>
+    <hyperlink ref="S9" r:id="rId25" xr:uid="{22AD9D41-48D6-4452-AD7E-8F178B6380FF}"/>
+    <hyperlink ref="T7" r:id="rId26" xr:uid="{99E440A0-AD42-4A10-BA15-5B56B1FA36C8}"/>
+    <hyperlink ref="S7" r:id="rId27" xr:uid="{621A496C-68F5-4D0E-8A8E-4F870820BDB5}"/>
+    <hyperlink ref="S6" r:id="rId28" xr:uid="{AC5D524F-FB06-4FFF-AEE0-D3CBB1B3A42F}"/>
+    <hyperlink ref="T6" r:id="rId29" xr:uid="{C2668B2E-3F2B-4BBD-A279-D1A2B7FDCF7A}"/>
+    <hyperlink ref="T3" r:id="rId30" xr:uid="{35BA6055-5D7D-4F7F-BE1F-2BECB6BD3B9E}"/>
+    <hyperlink ref="S3" r:id="rId31" xr:uid="{54A339C5-8B80-4B82-88AD-047A5DD8BA99}"/>
+    <hyperlink ref="U3" r:id="rId32" xr:uid="{4AE83041-C696-4958-8F14-E2CC01370F14}"/>
+    <hyperlink ref="U7" r:id="rId33" xr:uid="{463FCFE2-3D6A-4539-97A9-1B7AFD2237E5}"/>
+    <hyperlink ref="U9" r:id="rId34" xr:uid="{008F7F76-995F-4B36-A3A9-35A03CEC76EC}"/>
+    <hyperlink ref="U10" r:id="rId35" xr:uid="{39DB0342-B00B-4970-B6B1-C32F145234A6}"/>
+    <hyperlink ref="U11" r:id="rId36" xr:uid="{33023293-260E-4650-ADE0-D7B03B1C3672}"/>
+    <hyperlink ref="U12" r:id="rId37" xr:uid="{CF7E08C2-0A1B-483E-9704-B1FD2A1F73A1}"/>
+    <hyperlink ref="U17" r:id="rId38" xr:uid="{34755A16-7BAB-45EB-B43C-E7CDD6C7B6FE}"/>
+    <hyperlink ref="U20" r:id="rId39" xr:uid="{BD37DB6E-D84B-49B2-9072-DA005656DC1C}"/>
+    <hyperlink ref="V3" r:id="rId40" xr:uid="{C34E00CA-097B-4E35-895C-9BC408231E55}"/>
+    <hyperlink ref="V6" r:id="rId41" xr:uid="{42D7AABA-7D90-4370-A0AC-693FC5421BE7}"/>
+    <hyperlink ref="V7" r:id="rId42" xr:uid="{67BD13F8-4842-40FB-B72C-240C8F9DB7E9}"/>
+    <hyperlink ref="V9" r:id="rId43" xr:uid="{A9EF1B4F-45C8-48E5-89DE-2767BF90910E}"/>
+    <hyperlink ref="V10" r:id="rId44" xr:uid="{682B9420-04EC-4F50-940D-07BAE4FECAFE}"/>
+    <hyperlink ref="V11" r:id="rId45" xr:uid="{D4776C7E-C381-4E01-9A5D-3A785ADCE285}"/>
+    <hyperlink ref="V12" r:id="rId46" xr:uid="{042A7451-603B-417A-AA3E-4AA6EFCE5FAC}"/>
+    <hyperlink ref="V17" r:id="rId47" xr:uid="{685B2E8E-A701-4A3E-90E3-C816A3E06A21}"/>
+    <hyperlink ref="V20" r:id="rId48" xr:uid="{ED962CA6-E913-4286-B166-69F3B99120EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -2241,174 +2405,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD97937D-E42B-4CB1-8A59-4CF3083DCF01}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="16" style="37" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20" style="29" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="14" style="38" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="39" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="29" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="29"/>
-    <col min="20" max="20" width="13.42578125" style="29" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="30.7109375" style="27" customWidth="1"/>
+    <col min="2" max="3" width="6.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="20" style="27" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="45.140625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="27" customWidth="1"/>
+    <col min="15" max="15" width="14" style="36" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="37" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="27" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="27"/>
+    <col min="20" max="20" width="13.42578125" style="27" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="26" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:27" s="25" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
     </row>
     <row r="3" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
         <v>1</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="31">
-        <v>1</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30">
+      <c r="G3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28">
         <v>1</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>1</v>
       </c>
       <c r="L3" s="13">
@@ -2420,7 +2584,7 @@
       <c r="N3" s="13">
         <v>1</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="21">
         <v>1</v>
       </c>
       <c r="P3" s="13">
@@ -2452,111 +2616,111 @@
       </c>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="40">
+      <c r="AA3" s="38">
         <f>SUM(B3:Z3)</f>
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="40">
-        <f t="shared" ref="Z4:AA21" si="0">SUM(B4:Z4)</f>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="38">
+        <f t="shared" ref="AA4:AA21" si="0">SUM(B4:Z4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="40">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
         <v>3</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>1</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <v>1</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>1</v>
       </c>
       <c r="L6" s="13">
@@ -2568,7 +2732,7 @@
       <c r="N6" s="13">
         <v>1</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="21">
         <v>1</v>
       </c>
       <c r="P6" s="13">
@@ -2600,39 +2764,39 @@
       </c>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
-      <c r="AA6" s="40">
+      <c r="AA6" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
         <v>1</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <v>1</v>
       </c>
       <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>1</v>
       </c>
       <c r="L7" s="13">
@@ -2644,7 +2808,7 @@
       <c r="N7" s="13">
         <v>1</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="21">
         <v>1</v>
       </c>
       <c r="P7" s="13">
@@ -2676,39 +2840,39 @@
       </c>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
-      <c r="AA7" s="40">
+      <c r="AA7" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
         <v>1</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="30">
+      <c r="I8" s="28">
         <v>1</v>
       </c>
       <c r="J8" s="13">
         <v>1</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>1</v>
       </c>
       <c r="L8" s="13">
@@ -2720,7 +2884,7 @@
       <c r="N8" s="13">
         <v>1</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <v>1</v>
       </c>
       <c r="P8" s="13">
@@ -2752,39 +2916,39 @@
       </c>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="40">
+      <c r="AA8" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
         <v>2</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="30">
+      <c r="I9" s="28">
         <v>1</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>1</v>
       </c>
       <c r="L9" s="13">
@@ -2796,7 +2960,7 @@
       <c r="N9" s="13">
         <v>1</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <v>1</v>
       </c>
       <c r="P9" s="13">
@@ -2828,39 +2992,39 @@
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="40">
+      <c r="AA9" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="30">
-        <v>1</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
         <v>2</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>1</v>
       </c>
       <c r="J10" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>1</v>
       </c>
       <c r="L10" s="13">
@@ -2872,7 +3036,7 @@
       <c r="N10" s="13">
         <v>1</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <v>1</v>
       </c>
       <c r="P10" s="13">
@@ -2904,39 +3068,39 @@
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="40">
+      <c r="AA10" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="30">
-        <v>1</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="30">
+      <c r="I11" s="28">
         <v>1</v>
       </c>
       <c r="J11" s="13">
         <v>1</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>1</v>
       </c>
       <c r="L11" s="13">
@@ -2948,7 +3112,7 @@
       <c r="N11" s="13">
         <v>1</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="21">
         <v>1</v>
       </c>
       <c r="P11" s="13">
@@ -2980,39 +3144,39 @@
       </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="40">
+      <c r="AA11" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
         <v>2</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <v>1</v>
       </c>
       <c r="J12" s="13">
         <v>1</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>1</v>
       </c>
       <c r="L12" s="13">
@@ -3024,7 +3188,7 @@
       <c r="N12" s="13">
         <v>1</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="21">
         <v>1</v>
       </c>
       <c r="P12" s="13">
@@ -3034,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="13">
         <v>1</v>
@@ -3056,421 +3220,421 @@
       </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="40">
+      <c r="AA12" s="38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="28">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="28">
+        <v>2</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="28">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1</v>
+      </c>
+      <c r="O17" s="21">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1</v>
+      </c>
+      <c r="R17" s="13">
+        <v>1</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+      <c r="T17" s="13">
+        <v>1</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
+        <v>0</v>
+      </c>
+      <c r="W17" s="13">
+        <v>1</v>
+      </c>
+      <c r="X17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="40">
+    <row r="18" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="40">
+    <row r="19" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="40">
+    <row r="20" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="28">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="30">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <v>3</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="O20" s="21">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1</v>
+      </c>
+      <c r="R20" s="13">
+        <v>1</v>
+      </c>
+      <c r="S20" s="13">
+        <v>1</v>
+      </c>
+      <c r="T20" s="13">
+        <v>1</v>
+      </c>
+      <c r="U20" s="13">
+        <v>1</v>
+      </c>
+      <c r="V20" s="13">
+        <v>1</v>
+      </c>
+      <c r="W20" s="13">
+        <v>1</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="38">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="30">
-        <v>1</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30">
-        <v>2</v>
-      </c>
-      <c r="G17" s="31">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="30">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="22">
-        <v>1</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="13">
-        <v>1</v>
-      </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>1</v>
-      </c>
-      <c r="R17" s="13">
-        <v>1</v>
-      </c>
-      <c r="S17" s="13">
-        <v>1</v>
-      </c>
-      <c r="T17" s="13">
-        <v>1</v>
-      </c>
-      <c r="U17" s="13">
-        <v>1</v>
-      </c>
-      <c r="V17" s="13">
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
-        <v>1</v>
-      </c>
-      <c r="X17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="40">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="30">
-        <v>1</v>
-      </c>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="30">
-        <v>3</v>
-      </c>
-      <c r="G20" s="31">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="32">
-        <v>1</v>
-      </c>
-      <c r="J20" s="13">
-        <v>1</v>
-      </c>
-      <c r="K20" s="22">
-        <v>1</v>
-      </c>
-      <c r="L20" s="13">
-        <v>3</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="13">
-        <v>1</v>
-      </c>
-      <c r="O20" s="22">
-        <v>1</v>
-      </c>
-      <c r="P20" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>1</v>
-      </c>
-      <c r="R20" s="13">
-        <v>1</v>
-      </c>
-      <c r="S20" s="13">
-        <v>1</v>
-      </c>
-      <c r="T20" s="13">
-        <v>1</v>
-      </c>
-      <c r="U20" s="13">
-        <v>1</v>
-      </c>
-      <c r="V20" s="13">
-        <v>1</v>
-      </c>
-      <c r="W20" s="13">
-        <v>1</v>
-      </c>
-      <c r="X20" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="40">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
+    <row r="22" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/lab01.xlsx
+++ b/lab01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\other\Education\ib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4FDF9-893D-43C1-877D-BB358F2D636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC63DC4-5B56-42A5-B713-7593FAFC4F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E5C7B1F-9CC7-48EC-86FA-70E46418FE89}"/>
   </bookViews>
@@ -1166,7 +1166,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
     <col min="9" max="9" width="28.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="45.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="6" customWidth="1"/>
